--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.109799999999994</v>
+        <v>-7.283699999999995</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.98229999999999</v>
+        <v>-12.97929999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.0082</v>
+        <v>6.231199999999998</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>4.922800000000001</v>
+        <v>4.945200000000003</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.9274</v>
+        <v>5.0359</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.91219999999999</v>
+        <v>-13.74119999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,13 +737,13 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.69439999999999</v>
+        <v>6.580699999999994</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.49759999999999</v>
+        <v>-13.41879999999998</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.069899999999995</v>
+        <v>-9.045499999999997</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.062199999999995</v>
+        <v>-9.214899999999989</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.2791</v>
+        <v>-12.28080000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.496300000000002</v>
+        <v>-8.603900000000005</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.7566</v>
+        <v>-11.32580000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.15599999999999</v>
+        <v>-12.88839999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.66130000000001</v>
+        <v>-12.8034</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.888200000000007</v>
+        <v>-8.776800000000007</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.6235</v>
+        <v>8.628000000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.381899999999996</v>
+        <v>-8.389699999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.18850000000001</v>
+        <v>-12.9762</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-9.139299999999993</v>
+        <v>-8.963899999999994</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.342300000000002</v>
+        <v>-7.502000000000002</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.554200000000001</v>
+        <v>-7.585900000000001</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.21229999999999</v>
+        <v>-12.96259999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.225599999999995</v>
+        <v>6.148699999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.269199999999993</v>
+        <v>-8.278699999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.712799999999999</v>
+        <v>-7.740299999999994</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.890199999999997</v>
+        <v>5.666199999999996</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.00580000000001</v>
+        <v>-11.7155</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.493899999999997</v>
+        <v>-7.5218</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.525</v>
+        <v>-12.4043</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.161800000000005</v>
+        <v>9.3543</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.471299999999996</v>
+        <v>9.5032</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.150000000000006</v>
+        <v>5.099500000000003</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.056099999999999</v>
+        <v>5.939600000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.71819999999999</v>
+        <v>-13.98999999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.81149999999999</v>
+        <v>-12.84009999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.877000000000002</v>
+        <v>-7.951600000000004</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.9114</v>
+        <v>-6.912799999999999</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.643499999999997</v>
+        <v>-7.652199999999998</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.4828</v>
+        <v>-13.20070000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.3291</v>
+        <v>-12.0127</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,10 +2151,10 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.30830000000001</v>
+        <v>-12.96430000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.328599999999996</v>
+        <v>-8.120699999999996</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.03670000000001</v>
+        <v>-13.2342</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
